--- a/data/trans_camb/P37_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P37_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,8</t>
+          <t>-19,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-14,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,22</t>
+          <t>-21,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,37</t>
+          <t>15,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,94</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-5,45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-10,47</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 3,82</t>
+          <t>-51,46; 3,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 6,26</t>
+          <t>-51,12; 11,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 22,74</t>
+          <t>-55,94; 5,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 27,87</t>
+          <t>-2,76; 32,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 10,02</t>
+          <t>-16,85; 22,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 14,0</t>
+          <t>-23,47; 20,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-27,11; 14,53</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-31,33; 11,43</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-34,01; 8,64</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,71%</t>
+          <t>-30,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,0%</t>
+          <t>-21,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>-32,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>-1,63%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-3,13%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-8,81%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-16,92%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 5,91</t>
+          <t>-67,13; 8,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,53; 10,36</t>
+          <t>-65,87; 21,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 45,57</t>
+          <t>-73,76; 8,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 57,02</t>
+          <t>-3,48; 66,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 17,76</t>
+          <t>-26,1; 45,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 24,73</t>
+          <t>-36,78; 41,82</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-37,85; 25,94</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-43,45; 21,1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-49,41; 15,27</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>-5,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-7,65</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-5,57</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 9,18</t>
+          <t>-13,76; 12,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 10,99</t>
+          <t>-12,2; 14,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 5,27</t>
+          <t>-17,0; 9,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 3,77</t>
+          <t>-15,69; 4,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 4,73</t>
+          <t>-15,87; 4,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 5,61</t>
+          <t>-17,75; 2,74</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-10,31; 6,6</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; 6,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-14,1; 3,18</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,7%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,29%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>-8,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>-12,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-4,81%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-3,78%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-9,15%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 16,42</t>
+          <t>-21,78; 24,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 19,77</t>
+          <t>-18,18; 27,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 8,94</t>
+          <t>-26,8; 18,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 6,41</t>
+          <t>-23,5; 7,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 8,02</t>
+          <t>-23,87; 7,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 9,35</t>
+          <t>-27,02; 5,03</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-16,25; 11,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-15,83; 10,68</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-21,86; 5,35</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,39</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>-12,04</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-4,91</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-4,5</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-9,42</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 9,3</t>
+          <t>-12,85; 11,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 9,32</t>
+          <t>-14,26; 10,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 0,48</t>
+          <t>-18,26; 7,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 1,36</t>
+          <t>-19,02; 1,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 1,37</t>
+          <t>-16,3; 3,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 2,0</t>
+          <t>-23,06; -1,13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,6; 3,2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,73; 3,48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-17,96; -0,55</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,33%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,62%</t>
+          <t>-11,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>-8,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,75%</t>
+          <t>-16,81%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-6,96%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-6,38%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-13,36%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 14,49</t>
+          <t>-17,48; 18,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 14,5</t>
+          <t>-18,88; 16,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 0,52</t>
+          <t>-24,67; 11,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 1,97</t>
+          <t>-24,78; 2,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 2,04</t>
+          <t>-21,37; 5,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 3,33</t>
+          <t>-30,76; -1,58</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-16,93; 4,8</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-16,32; 5,13</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-24,32; -0,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 5,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 2,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 2,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 6,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 8,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 4,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 4,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 2,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 4,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3,54</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,8</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-7,74</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-3,7</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-4,69</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-8,72</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,82</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-8,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-12,43; 5,12</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-12,68; 5,91</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-18,64; 1,74</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; 3,54</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-10,79; 2,83</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-16,83; -2,13</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 2,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-10,02; 1,45</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-14,59; -2,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-5,55%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-4,39%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-12,13%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-5,62%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-7,13%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-13,26%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-5,63%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-5,89%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-12,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-18,19; 8,31</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-19,08; 9,91</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-28,03; 2,8</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-15,11; 5,22</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-15,65; 4,64</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-24,21; -3,3</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-14,48; 3,58</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 2,3</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-21,53; -3,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
